--- a/biology/Botanique/Square_Henry-Bataille/Square_Henry-Bataille.xlsx
+++ b/biology/Botanique/Square_Henry-Bataille/Square_Henry-Bataille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Henry-Bataille est un square du 16e arrondissement de Paris, dans le quartier d'Auteuil, longeant le bois de Boulogne et le boulevard Suchet.
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est accessible au niveau du 64 boulevard Suchet et de l'avenue du Maréchal-Franchet-d'Espérey[1],[2].
-Il est ouvert 24 heures sur 24[2].
-Il est desservi par la ligne 9 à la station Jasmin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est accessible au niveau du 64 boulevard Suchet et de l'avenue du Maréchal-Franchet-d'Espérey,.
+Il est ouvert 24 heures sur 24.
+Il est desservi par la ligne 9 à la station Jasmin.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de l'auteur dramatique Henry Bataille (1872-1922)[1], qui vivait dans le même arrondissement, 40 avenue Foch[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de l'auteur dramatique Henry Bataille (1872-1922), qui vivait dans le même arrondissement, 40 avenue Foch.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square est ouvert et prend sa dénomination actuelle en 1928, à l'emplacement du bastion no 60 de l'enceinte de Thiers[1]. Voisins, les squares Alfred-Capus, Tolstoï et des Écrivains-Combattants-Morts-pour-la-France sont aménagés à la même époque et suivant un schéma similaire.
-Il s'agit d'un espace vert loti sur ses pourtours nord et sud. Il possède le label ÉcoJardin[2].
-Planté d'érables boules, le square accueille une aire de jeux pour enfants et un bac à sable. Il est accessible aux personnes à mobilité réduite. Les chiens y sont interdits. Juste à l'extérieur, côté ouest, sur un tronçon piéton de l'avenue du Maréchal-Franchet-d'Espérey, sont installés quatre équipements de fitness et deux tables de ping-pong[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square est ouvert et prend sa dénomination actuelle en 1928, à l'emplacement du bastion no 60 de l'enceinte de Thiers. Voisins, les squares Alfred-Capus, Tolstoï et des Écrivains-Combattants-Morts-pour-la-France sont aménagés à la même époque et suivant un schéma similaire.
+Il s'agit d'un espace vert loti sur ses pourtours nord et sud. Il possède le label ÉcoJardin.
+Planté d'érables boules, le square accueille une aire de jeux pour enfants et un bac à sable. Il est accessible aux personnes à mobilité réduite. Les chiens y sont interdits. Juste à l'extérieur, côté ouest, sur un tronçon piéton de l'avenue du Maréchal-Franchet-d'Espérey, sont installés quatre équipements de fitness et deux tables de ping-pong.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Une sculpture de gazelle en bronze, œuvre de Marguerite de Bayser-Gratry, orne la pelouse centrale[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une sculpture de gazelle en bronze, œuvre de Marguerite de Bayser-Gratry, orne la pelouse centrale.
 L'hippodrome d'Auteuil est visible depuis le square, et donc le bois de Boulogne, où il est situé.</t>
         </is>
       </c>
